--- a/IPL/Punjab Kings/Rohit Sharma (c).xlsx
+++ b/IPL/Punjab Kings/Rohit Sharma (c).xlsx
@@ -445,28 +445,31 @@
         <v>Rohit Sharma (c)</v>
       </c>
       <c r="C2" t="str">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D2" t="str">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E2" t="str">
+        <v>4</v>
+      </c>
+      <c r="F2" t="str">
         <v>3</v>
       </c>
-      <c r="F2" t="str">
-        <v>2</v>
-      </c>
       <c r="G2" t="str">
-        <v>164.70</v>
+        <v>162.96</v>
       </c>
       <c r="H2" t="str">
         <v>Mumbai Indians</v>
       </c>
       <c r="I2" t="str">
-        <v>Pune</v>
+        <v>Wankhede</v>
       </c>
       <c r="J2" t="str">
-        <v>April 13 2022</v>
+        <v>April 22 2023</v>
+      </c>
+      <c r="K2" t="str">
+        <v/>
       </c>
     </row>
     <row r="3">
@@ -477,31 +480,31 @@
         <v>Rohit Sharma (c)</v>
       </c>
       <c r="C3" t="str">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D3" t="str">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E3" t="str">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F3" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G3" t="str">
-        <v>164.70</v>
+        <v>0.00</v>
       </c>
       <c r="H3" t="str">
         <v>Mumbai Indians</v>
       </c>
       <c r="I3" t="str">
-        <v>Pune</v>
+        <v>Mohali</v>
       </c>
       <c r="J3" t="str">
-        <v>April 13 2022</v>
+        <v>May 03 2023</v>
       </c>
       <c r="K3" t="str">
-        <v>Punjab Kings won by 12 runs</v>
+        <v/>
       </c>
     </row>
   </sheetData>
